--- a/3-course-6-semester/econometrics/task-4/task-4.xlsx
+++ b/3-course-6-semester/econometrics/task-4/task-4.xlsx
@@ -1,48 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu\home\egor\github\university\3-course-6-semester\econometrics\task-4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mag\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79C7169C-8BD9-4101-9667-D0D7E35CB7D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C13E3E0B-AC9A-4314-AC08-FB8E74A831DE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ДЗ" sheetId="2" r:id="rId1"/>
+    <sheet name="Пара" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
   <futureMetadata name="XLDAPR" count="1">
     <bk>
       <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+        <ext xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray" uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
           <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
         </ext>
       </extLst>
@@ -57,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="88">
   <si>
     <t>y</t>
   </si>
@@ -234,13 +225,100 @@
   </si>
   <si>
     <t>ост df</t>
+  </si>
+  <si>
+    <t>неправильная матрица</t>
+  </si>
+  <si>
+    <t>Среднее</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>Сигма</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>r</t>
+  </si>
+  <si>
+    <t>r_yx1</t>
+  </si>
+  <si>
+    <t>r_yx2</t>
+  </si>
+  <si>
+    <t>r_x1x2</t>
+  </si>
+  <si>
+    <t>det</t>
+  </si>
+  <si>
+    <t>b1</t>
+  </si>
+  <si>
+    <t>b2</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>det r</t>
+  </si>
+  <si>
+    <t>det r11</t>
+  </si>
+  <si>
+    <t>R^2</t>
+  </si>
+  <si>
+    <t>F табл</t>
+  </si>
+  <si>
+    <t>F факт</t>
+  </si>
+  <si>
+    <t>R_yx1x2</t>
+  </si>
+  <si>
+    <t>F_x1</t>
+  </si>
+  <si>
+    <t>t_x1</t>
+  </si>
+  <si>
+    <t>F_x2</t>
+  </si>
+  <si>
+    <t>t_x2</t>
+  </si>
+  <si>
+    <t>t_табл</t>
+  </si>
+  <si>
+    <t>Точечный</t>
+  </si>
+  <si>
+    <t>Найдём матрицу коэффициентов</t>
+  </si>
+  <si>
+    <t>X^T*X</t>
+  </si>
+  <si>
+    <t>Обр</t>
+  </si>
+  <si>
+    <t>Обр*X</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -272,6 +350,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -287,7 +381,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -464,11 +558,73 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -514,6 +670,19 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -529,12 +698,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -544,6 +707,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -4657,7 +4827,7 @@
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
-                              <m:t>1</m:t>
+                              <m:t>2</m:t>
                             </m:r>
                           </m:sub>
                         </m:sSub>
@@ -4910,13 +5080,13 @@
                 <a:rPr lang="en-US" sz="1200" b="0" i="0" baseline="0">
                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                 </a:rPr>
-                <a:t>𝑦𝑥_1</a:t>
+                <a:t>𝑦𝑥_1 </a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="ru-RU" sz="1200" b="0" i="0" baseline="0">
                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                 </a:rPr>
-                <a:t> )</a:t>
+                <a:t>)</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="en-US" sz="1200" b="0" i="0" baseline="0">
@@ -4930,7 +5100,7 @@
                     <a:schemeClr val="dk1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
@@ -4960,11 +5130,35 @@
                     <a:schemeClr val="dk1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t>𝑥_1</a:t>
+                <a:t>𝑥_1 </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1200" b="0" i="0" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>) ̅/</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑦</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="ru-RU" sz="1200" b="0" i="0" baseline="0">
@@ -4976,46 +5170,10 @@
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t> </a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1200" b="0" i="0" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>) ̅/</a:t>
+                <a:t> ̅</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="en-US" sz="1100" b="0" i="0" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>𝑦</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="ru-RU" sz="1200" b="0" i="0" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t> ̅</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1200" b="0" i="0" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="dk1"/>
                   </a:solidFill>
@@ -5054,47 +5212,11 @@
                     <a:schemeClr val="dk1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
                 <a:t>Э_(</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>𝑦𝑥_1 </a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="ru-RU" sz="1100" b="0" i="0" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>)</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>=𝑏_</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="en-US" sz="1100" b="0" i="0" baseline="0">
@@ -5106,19 +5228,19 @@
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t>2</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0" baseline="0">
+                <a:t>𝑦𝑥_2 </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100" b="0" i="0" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="dk1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t>  (𝑥_</a:t>
+                <a:t>)</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="en-US" sz="1100" b="0" i="0" baseline="0">
@@ -5130,7 +5252,19 @@
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t>2</a:t>
+                <a:t>=𝑏_2  (𝑥_2 ) ̅/𝑦</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100" b="0" i="0" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> ̅</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="en-US" sz="1100" b="0" i="0" baseline="0">
@@ -5138,11 +5272,612 @@
                     <a:schemeClr val="dk1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t> ) ̅/𝑦</a:t>
+                <a:t> </a:t>
+              </a:r>
+              <a:endParaRPr lang="ru-RU" sz="1200" b="0" i="1" baseline="0">
+                <a:latin typeface="+mj-lt"/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>142874</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>161924</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{178BC7EA-978E-4529-ADD0-31F96363746C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4162425" y="523874"/>
+          <a:ext cx="6238875" cy="3857625"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1200" b="1" i="1">
+              <a:latin typeface="+mj-lt"/>
+            </a:rPr>
+            <a:t>Задача</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1200" b="1" i="1" baseline="0">
+            <a:latin typeface="+mj-lt"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1200" b="0" i="1" baseline="0">
+              <a:latin typeface="+mj-lt"/>
+            </a:rPr>
+            <a:t>Найти уравнение регрессии в стандартизованном масштабе</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1200" b="0" i="1" baseline="0">
+            <a:latin typeface="+mj-lt"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1200" b="0" i="1" baseline="0">
+            <a:latin typeface="+mj-lt"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" b="0" i="1" baseline="0">
+              <a:latin typeface="+mj-lt"/>
+            </a:rPr>
+            <a:t>0,75 = beta1 + 0,45beta2</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" b="0" i="1" baseline="0">
+              <a:latin typeface="+mj-lt"/>
+            </a:rPr>
+            <a:t>0,65 =  0,45beta1 + beta2</a:t>
+          </a:r>
+          <a:endParaRPr lang="ru-RU" sz="1200" b="0" i="1" baseline="0">
+            <a:latin typeface="+mj-lt"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ru-RU" sz="1200" b="0" i="1" baseline="0">
+            <a:latin typeface="+mj-lt"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ru-RU" sz="1200" b="0" i="1" baseline="0">
+            <a:latin typeface="+mj-lt"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1200" b="0" i="1" baseline="0">
+              <a:latin typeface="+mj-lt"/>
+            </a:rPr>
+            <a:t>Найти уравнение множественной регресси в натуралном масштабеНайти</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1200" b="0" i="1" baseline="0">
+              <a:latin typeface="+mj-lt"/>
+            </a:rPr>
+            <a:t>Найти </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" b="0" i="1" baseline="0">
+              <a:latin typeface="+mj-lt"/>
+            </a:rPr>
+            <a:t>t</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1200" b="0" i="1" baseline="0">
+              <a:latin typeface="+mj-lt"/>
+            </a:rPr>
+            <a:t> критерий для коэффициентов регрессии</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1200" b="0" i="1" baseline="0">
+            <a:latin typeface="+mj-lt"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1200" b="0" i="1" baseline="0">
+            <a:latin typeface="+mj-lt"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1200" b="0" i="1" baseline="0">
+            <a:latin typeface="+mj-lt"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1200" b="0" i="1" baseline="0">
+              <a:latin typeface="+mj-lt"/>
+            </a:rPr>
+            <a:t>Дать интеравальный прогноз </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" b="0" i="1" baseline="0">
+              <a:latin typeface="+mj-lt"/>
+            </a:rPr>
+            <a:t>y </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1200" b="0" i="1" baseline="0">
+              <a:latin typeface="+mj-lt"/>
+            </a:rPr>
+            <a:t>при </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" b="0" i="1" baseline="0">
+              <a:latin typeface="+mj-lt"/>
+            </a:rPr>
+            <a:t>x1_p = 60, x2_p = 110</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1200" b="0" i="1" baseline="0">
+            <a:latin typeface="+mj-lt"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1200" b="0" i="1" baseline="0">
+            <a:latin typeface="+mj-lt"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1200" b="1" i="1" baseline="0">
+              <a:latin typeface="+mj-lt"/>
+            </a:rPr>
+            <a:t>ДЗ</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ru-RU" sz="1200" b="0" i="1" baseline="0">
+            <a:latin typeface="+mj-lt"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1200" b="0" i="1" baseline="0">
+              <a:latin typeface="+mj-lt"/>
+            </a:rPr>
+            <a:t>Фотки у Иры</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1200" b="0" i="1" baseline="0">
+              <a:latin typeface="+mj-lt"/>
+            </a:rPr>
+            <a:t>Пример 2</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1200" b="0" i="1" baseline="0">
+              <a:latin typeface="+mj-lt"/>
+            </a:rPr>
+            <a:t>Пример 4</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>152398</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="4" name="TextBox 3">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D5395D4-362D-4B89-84AE-A96B3D93CF3F}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4943475" y="5572125"/>
+              <a:ext cx="2524123" cy="323850"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="dk1"/>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="lt1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="dk1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="left"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1" baseline="0">
+                            <a:solidFill>
+                              <a:schemeClr val="dk1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1" baseline="0">
+                            <a:solidFill>
+                              <a:schemeClr val="dk1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑡</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1" baseline="0">
+                            <a:solidFill>
+                              <a:schemeClr val="dk1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑌</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1100" b="0" i="1" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="dk1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>=0.573668</m:t>
+                    </m:r>
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1" baseline="0">
+                            <a:solidFill>
+                              <a:schemeClr val="dk1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1" baseline="0">
+                            <a:solidFill>
+                              <a:schemeClr val="dk1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑡</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:sSub>
+                          <m:sSubPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1" baseline="0">
+                                <a:solidFill>
+                                  <a:schemeClr val="dk1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:sSubPr>
+                          <m:e>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1" baseline="0">
+                                <a:solidFill>
+                                  <a:schemeClr val="dk1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>𝑋</m:t>
+                            </m:r>
+                          </m:e>
+                          <m:sub>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1" baseline="0">
+                                <a:solidFill>
+                                  <a:schemeClr val="dk1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>1</m:t>
+                            </m:r>
+                          </m:sub>
+                        </m:sSub>
+                      </m:sub>
+                    </m:sSub>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1100" b="0" i="1" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="dk1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>+0.39185</m:t>
+                    </m:r>
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1" baseline="0">
+                            <a:solidFill>
+                              <a:schemeClr val="dk1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1" baseline="0">
+                            <a:solidFill>
+                              <a:schemeClr val="dk1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑡</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:sSub>
+                          <m:sSubPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="ru-RU" sz="1100" b="0" i="1" baseline="0">
+                                <a:solidFill>
+                                  <a:schemeClr val="dk1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:sSubPr>
+                          <m:e>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1" baseline="0">
+                                <a:solidFill>
+                                  <a:schemeClr val="dk1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>𝑋</m:t>
+                            </m:r>
+                          </m:e>
+                          <m:sub>
+                            <m:r>
+                              <a:rPr lang="ru-RU" sz="1100" b="0" i="1" baseline="0">
+                                <a:solidFill>
+                                  <a:schemeClr val="dk1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>2</m:t>
+                            </m:r>
+                          </m:sub>
+                        </m:sSub>
+                      </m:sub>
+                    </m:sSub>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="ru-RU" sz="1200" b="0" i="1" baseline="0">
+                <a:latin typeface="+mj-lt"/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="4" name="TextBox 3">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D5395D4-362D-4B89-84AE-A96B3D93CF3F}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4943475" y="5572125"/>
+              <a:ext cx="2524123" cy="323850"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="dk1"/>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="lt1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="dk1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑡_𝑌=0.573668𝑡_(𝑋_1 )+0.39185𝑡_(𝑋</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="ru-RU" sz="1100" b="0" i="0" baseline="0">
@@ -5150,11 +5885,11 @@
                     <a:schemeClr val="dk1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t> ̅</a:t>
+                <a:t>_2</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="en-US" sz="1100" b="0" i="0" baseline="0">
@@ -5162,11 +5897,11 @@
                     <a:schemeClr val="dk1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t> </a:t>
+                <a:t> )</a:t>
               </a:r>
               <a:endParaRPr lang="ru-RU" sz="1200" b="0" i="1" baseline="0">
                 <a:latin typeface="+mj-lt"/>
@@ -5446,8 +6181,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A1E7708-BAE7-45F9-BECA-B8DE649787FB}">
   <dimension ref="A2:W137"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
-      <selection activeCell="K79" sqref="K79"/>
+    <sheetView topLeftCell="A109" workbookViewId="0">
+      <selection activeCell="C134" sqref="C134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5460,18 +6195,18 @@
   <sheetData>
     <row r="2" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="31" t="s">
+      <c r="B3" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="32"/>
+      <c r="C3" s="41"/>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B5" s="33" t="s">
+      <c r="B5" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="33"/>
-      <c r="D5" s="33"/>
-      <c r="E5" s="33"/>
+      <c r="C5" s="42"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="42"/>
     </row>
     <row r="6" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="7" spans="2:5" x14ac:dyDescent="0.25">
@@ -5508,18 +6243,18 @@
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B12" s="33" t="s">
+      <c r="B12" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="33"/>
-      <c r="D12" s="33"/>
+      <c r="C12" s="42"/>
+      <c r="D12" s="42"/>
     </row>
     <row r="13" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="14" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="34" t="s">
+      <c r="B14" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="35"/>
+      <c r="C14" s="47"/>
       <c r="D14" s="10">
         <f>MDETERM(B7:D9)</f>
         <v>62126.000000000291</v>
@@ -5531,11 +6266,11 @@
       </c>
     </row>
     <row r="18" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="30" t="s">
+      <c r="B18" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="C18" s="30"/>
-      <c r="D18" s="30"/>
+      <c r="C18" s="39"/>
+      <c r="D18" s="39"/>
     </row>
     <row r="19" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B19" s="2">
@@ -5579,11 +6314,11 @@
       </c>
     </row>
     <row r="24" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="30" t="s">
+      <c r="B24" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="C24" s="30"/>
-      <c r="D24" s="30"/>
+      <c r="C24" s="39"/>
+      <c r="D24" s="39"/>
     </row>
     <row r="25" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B25" s="2">
@@ -5627,11 +6362,11 @@
       </c>
     </row>
     <row r="30" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="30" t="s">
+      <c r="B30" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="C30" s="30"/>
-      <c r="D30" s="30"/>
+      <c r="C30" s="39"/>
+      <c r="D30" s="39"/>
     </row>
     <row r="31" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B31" s="2">
@@ -5675,10 +6410,10 @@
     </row>
     <row r="40" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="41" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="31" t="s">
+      <c r="B41" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="C41" s="32"/>
+      <c r="C41" s="41"/>
     </row>
     <row r="45" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
@@ -5795,17 +6530,17 @@
     </row>
     <row r="58" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="59" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B59" s="36" t="s">
+      <c r="B59" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="C59" s="37"/>
+      <c r="C59" s="44"/>
     </row>
     <row r="60" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="61" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B61" s="31" t="s">
+      <c r="B61" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="C61" s="32"/>
+      <c r="C61" s="41"/>
       <c r="W61" s="11"/>
     </row>
     <row r="64" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5926,10 +6661,10 @@
     </row>
     <row r="87" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="88" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B88" s="31" t="s">
+      <c r="B88" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="C88" s="32"/>
+      <c r="C88" s="41"/>
     </row>
     <row r="90" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B90" s="1" t="s">
@@ -5956,17 +6691,17 @@
     </row>
     <row r="97" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="98" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B98" s="31" t="s">
+      <c r="B98" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="C98" s="32"/>
+      <c r="C98" s="41"/>
     </row>
     <row r="100" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B100" s="38" t="s">
+      <c r="B100" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="C100" s="38"/>
-      <c r="D100" s="38"/>
+      <c r="C100" s="45"/>
+      <c r="D100" s="45"/>
     </row>
     <row r="101" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B101" s="15" t="s">
@@ -6016,10 +6751,10 @@
     </row>
     <row r="109" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="110" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B110" s="31" t="s">
+      <c r="B110" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="C110" s="32"/>
+      <c r="C110" s="41"/>
     </row>
     <row r="112" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="113" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6039,10 +6774,10 @@
       </c>
     </row>
     <row r="116" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B116" s="38" t="s">
+      <c r="B116" s="45" t="s">
         <v>45</v>
       </c>
-      <c r="C116" s="38"/>
+      <c r="C116" s="45"/>
     </row>
     <row r="117" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B117" s="10">
@@ -6052,12 +6787,16 @@
     </row>
     <row r="119" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="120" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B120" s="31" t="s">
+      <c r="B120" s="40" t="s">
         <v>46</v>
       </c>
-      <c r="C120" s="32"/>
-    </row>
-    <row r="122" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+      <c r="C120" s="41"/>
+    </row>
+    <row r="122" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K122" s="30" t="s">
+        <v>59</v>
+      </c>
+    </row>
     <row r="123" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B123" s="14" t="s">
         <v>47</v>
@@ -6192,10 +6931,10 @@
     </row>
     <row r="135" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="136" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B136" s="29" t="s">
+      <c r="B136" s="38" t="s">
         <v>57</v>
       </c>
-      <c r="C136" s="29"/>
+      <c r="C136" s="38"/>
       <c r="J136" s="1" t="s">
         <v>53</v>
       </c>
@@ -6234,4 +6973,564 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CECF7BF1-36C1-43D0-ACB5-D9EBF3D05271}">
+  <dimension ref="A1:N83"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="F83" sqref="F83"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D3" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="E3" s="32"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>250</v>
+      </c>
+      <c r="C4">
+        <v>40</v>
+      </c>
+      <c r="D4" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="E4" s="34">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>50</v>
+      </c>
+      <c r="C5">
+        <v>10</v>
+      </c>
+      <c r="D5" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="E5" s="34">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6">
+        <v>100</v>
+      </c>
+      <c r="C6">
+        <v>20</v>
+      </c>
+      <c r="D6" s="35" t="s">
+        <v>67</v>
+      </c>
+      <c r="E6" s="36">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" t="s">
+        <v>1</v>
+      </c>
+      <c r="D15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" s="2">
+        <v>1</v>
+      </c>
+      <c r="C16" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="D16" s="4">
+        <v>0.65</v>
+      </c>
+      <c r="F16" t="s">
+        <v>72</v>
+      </c>
+      <c r="G16">
+        <f>MDETERM(B16:D18)</f>
+        <v>0.25124999999999997</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B17" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="C17" s="18">
+        <v>1</v>
+      </c>
+      <c r="D17" s="6">
+        <v>0.45</v>
+      </c>
+      <c r="F17" t="s">
+        <v>73</v>
+      </c>
+      <c r="G17">
+        <f>MDETERM(C17:D18)</f>
+        <v>0.79749999999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>2</v>
+      </c>
+      <c r="B18" s="7">
+        <v>0.65</v>
+      </c>
+      <c r="C18" s="8">
+        <v>0.45</v>
+      </c>
+      <c r="D18" s="9">
+        <v>1</v>
+      </c>
+      <c r="F18" t="s">
+        <v>74</v>
+      </c>
+      <c r="G18">
+        <f>1-G16/G17</f>
+        <v>0.6849529780564263</v>
+      </c>
+      <c r="J18" t="s">
+        <v>76</v>
+      </c>
+      <c r="K18">
+        <f>G18/(1-G18)*(30-2-1)/2</f>
+        <v>29.35074626865671</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F19" t="s">
+        <v>63</v>
+      </c>
+      <c r="G19">
+        <f>G18^0.5</f>
+        <v>0.82761886037984078</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="J20" t="s">
+        <v>75</v>
+      </c>
+      <c r="K20">
+        <f>_xlfn.F.INV.RT(0.05,2,27)</f>
+        <v>3.3541308285291991</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C21" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="D21" s="37" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B22" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="C22" s="2">
+        <v>1</v>
+      </c>
+      <c r="D22" s="4">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="C23" s="7">
+        <v>0.45</v>
+      </c>
+      <c r="D23" s="9">
+        <v>1</v>
+      </c>
+      <c r="F23" t="s">
+        <v>68</v>
+      </c>
+      <c r="G23">
+        <f>MDETERM(C22:D23)</f>
+        <v>0.79749999999999999</v>
+      </c>
+      <c r="J23" t="s">
+        <v>77</v>
+      </c>
+      <c r="K23">
+        <f>(E4-E5*E6)/((1-E5)*(1-E6))^0.5</f>
+        <v>0.88741196746494233</v>
+      </c>
+      <c r="M23" t="s">
+        <v>80</v>
+      </c>
+      <c r="N23">
+        <v>10.49</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="J24" t="s">
+        <v>78</v>
+      </c>
+      <c r="K24">
+        <f>((K23-E5)/(1-K23))*(30-3)</f>
+        <v>56.934320435499728</v>
+      </c>
+      <c r="M24" t="s">
+        <v>81</v>
+      </c>
+      <c r="N24">
+        <f>N23^0.5</f>
+        <v>3.2388269481403293</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J25" t="s">
+        <v>79</v>
+      </c>
+      <c r="K25">
+        <v>4.74</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C26" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="D26" s="4">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C27" s="7">
+        <v>0.65</v>
+      </c>
+      <c r="D27" s="9">
+        <v>1</v>
+      </c>
+      <c r="J27" t="s">
+        <v>82</v>
+      </c>
+      <c r="K27">
+        <f>_xlfn.T.INV.2T(0.05,27)</f>
+        <v>2.0518305164802859</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C30" t="s">
+        <v>3</v>
+      </c>
+      <c r="D30">
+        <f>MDETERM(C26:D27)</f>
+        <v>0.45750000000000002</v>
+      </c>
+      <c r="F30" t="s">
+        <v>4</v>
+      </c>
+      <c r="G30">
+        <f>D30/G23</f>
+        <v>0.57366771159874608</v>
+      </c>
+    </row>
+    <row r="33" spans="3:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="34" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C34" s="2">
+        <v>1</v>
+      </c>
+      <c r="D34" s="4">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="35" spans="3:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C35" s="7">
+        <v>0.45</v>
+      </c>
+      <c r="D35" s="9">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="38" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C38" t="s">
+        <v>5</v>
+      </c>
+      <c r="D38">
+        <f>MDETERM(C34:D35)</f>
+        <v>0.3125</v>
+      </c>
+      <c r="F38" t="s">
+        <v>6</v>
+      </c>
+      <c r="G38">
+        <f>D38/G23</f>
+        <v>0.39184952978056425</v>
+      </c>
+    </row>
+    <row r="42" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C42" t="s">
+        <v>69</v>
+      </c>
+      <c r="D42">
+        <f>G30*C4/C5</f>
+        <v>2.2946708463949843</v>
+      </c>
+    </row>
+    <row r="43" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C43" t="s">
+        <v>70</v>
+      </c>
+      <c r="D43">
+        <f>G38*C4/C6</f>
+        <v>0.78369905956112851</v>
+      </c>
+    </row>
+    <row r="44" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C44" t="s">
+        <v>71</v>
+      </c>
+      <c r="D44">
+        <f>B4-D42*B5-D43*B6</f>
+        <v>56.896551724137922</v>
+      </c>
+    </row>
+    <row r="47" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="H47" t="s">
+        <v>83</v>
+      </c>
+      <c r="I47">
+        <f>D44+D49*D42+D50*D43</f>
+        <v>280.78369905956112</v>
+      </c>
+    </row>
+    <row r="49" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C49" t="s">
+        <v>43</v>
+      </c>
+      <c r="D49">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="50" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C50" t="s">
+        <v>44</v>
+      </c>
+      <c r="D50">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="53" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C53" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="55" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C55" t="s">
+        <v>47</v>
+      </c>
+      <c r="F55" t="s">
+        <v>48</v>
+      </c>
+      <c r="G55">
+        <v>1</v>
+      </c>
+      <c r="H55">
+        <v>60</v>
+      </c>
+      <c r="I55">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="56" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C57">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="58" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C58">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="61" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="E61" t="s">
+        <v>85</v>
+      </c>
+      <c r="F61">
+        <v>30</v>
+      </c>
+      <c r="G61">
+        <f>B5*C1</f>
+        <v>1500</v>
+      </c>
+      <c r="H61">
+        <f>B6*C1</f>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="62" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="F62">
+        <v>1500</v>
+      </c>
+      <c r="G62">
+        <v>78000</v>
+      </c>
+      <c r="H62">
+        <v>152700</v>
+      </c>
+    </row>
+    <row r="63" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="F63">
+        <v>3000</v>
+      </c>
+      <c r="G63">
+        <v>152700</v>
+      </c>
+      <c r="H63">
+        <v>312000</v>
+      </c>
+    </row>
+    <row r="67" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E67" t="s">
+        <v>86</v>
+      </c>
+      <c r="F67">
+        <f t="array" ref="F67:H69">MINVERSE(F61:H63)</f>
+        <v>1.1827586206896552</v>
+      </c>
+      <c r="G67">
+        <v>-1.1494252873563216E-2</v>
+      </c>
+      <c r="H67">
+        <v>-5.7471264367816065E-3</v>
+      </c>
+    </row>
+    <row r="68" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="F68">
+        <v>-1.1494252873563218E-2</v>
+      </c>
+      <c r="G68">
+        <v>4.1797283176593522E-4</v>
+      </c>
+      <c r="H68">
+        <v>-9.4043887147335446E-5</v>
+      </c>
+    </row>
+    <row r="69" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="F69">
+        <v>-5.7471264367816091E-3</v>
+      </c>
+      <c r="G69">
+        <v>-9.4043887147335432E-5</v>
+      </c>
+      <c r="H69">
+        <v>1.0449320794148379E-4</v>
+      </c>
+    </row>
+    <row r="72" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E72" t="s">
+        <v>87</v>
+      </c>
+      <c r="F72">
+        <f>MMULT(F67:H69,C56:C58)</f>
+        <v>-0.13908045977011452</v>
+      </c>
+    </row>
+    <row r="75" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E75" t="s">
+        <v>51</v>
+      </c>
+      <c r="F75">
+        <f>560.0836</f>
+        <v>560.08360000000005</v>
+      </c>
+    </row>
+    <row r="76" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E76" t="s">
+        <v>52</v>
+      </c>
+      <c r="F76">
+        <f>(1+F72)^0.5</f>
+        <v>0.92785749995884903</v>
+      </c>
+    </row>
+    <row r="77" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E77" t="s">
+        <v>56</v>
+      </c>
+      <c r="F77">
+        <f>F75*F76</f>
+        <v>519.67776886395211</v>
+      </c>
+    </row>
+    <row r="80" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E80" t="s">
+        <v>54</v>
+      </c>
+      <c r="F80">
+        <f>_xlfn.T.INV.2T(0.05,27)</f>
+        <v>2.0518305164802859</v>
+      </c>
+    </row>
+    <row r="81" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E81" s="48" t="s">
+        <v>55</v>
+      </c>
+      <c r="F81">
+        <f>F77*F80</f>
+        <v>1066.2907048914456</v>
+      </c>
+    </row>
+    <row r="83" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E83">
+        <f>I47-F81</f>
+        <v>-785.5070058318845</v>
+      </c>
+      <c r="F83">
+        <f>F81+I47</f>
+        <v>1347.0744039510066</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>